--- a/media/docs/happify-Dev-Plan.xlsx
+++ b/media/docs/happify-Dev-Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>redirect bei nicht login rausnehmen</t>
   </si>
@@ -61,6 +61,207 @@
   </si>
   <si>
     <t>6.9.</t>
+  </si>
+  <si>
+    <t>Burns Depression Checklist</t>
+  </si>
+  <si>
+    <t>form questions</t>
+  </si>
+  <si>
+    <t>inserting it DB</t>
+  </si>
+  <si>
+    <t>overview page</t>
+  </si>
+  <si>
+    <t>progress over time</t>
+  </si>
+  <si>
+    <t>Dysfunctional Attitude Scale</t>
+  </si>
+  <si>
+    <t>suggestions for improvement areas</t>
+  </si>
+  <si>
+    <t>Average Variety Score</t>
+  </si>
+  <si>
+    <t>to be specified</t>
+  </si>
+  <si>
+    <t>Analyses overview</t>
+  </si>
+  <si>
+    <t>combine all 3 results</t>
+  </si>
+  <si>
+    <t>Daily Diary</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>page view</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>“Guidelines”/Rules</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>to be specified; how does it emerge from the analyses and rules</t>
+  </si>
+  <si>
+    <t>update when goals have been achieved</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>ask what user is regulary doing</t>
+  </si>
+  <si>
+    <t>let him track when to do activities last time etc</t>
+  </si>
+  <si>
+    <t>Distorted thoughts</t>
+  </si>
+  <si>
+    <t>enter new ones ajax</t>
+  </si>
+  <si>
+    <t>update when thought has been continously eliminated</t>
+  </si>
+  <si>
+    <t>progress view (3 of 10 thoughts eliminated; ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happidentifier </t>
+  </si>
+  <si>
+    <t>My Dreams</t>
+  </si>
+  <si>
+    <t>add new ones</t>
+  </si>
+  <si>
+    <t>output on profile</t>
+  </si>
+  <si>
+    <t>Overview page</t>
+  </si>
+  <si>
+    <t>mash all data up; tracking &amp; outputing</t>
+  </si>
+  <si>
+    <t>forgot password</t>
+  </si>
+  <si>
+    <t>recommendations</t>
+  </si>
+  <si>
+    <t>links (fb, ...)</t>
+  </si>
+  <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Expert Chat</t>
+  </si>
+  <si>
+    <t>Blog / Information</t>
+  </si>
+  <si>
+    <t>to be specified; what makes u happy administration</t>
+  </si>
+  <si>
+    <t>update when last done</t>
+  </si>
+  <si>
+    <t>profile information / myself</t>
+  </si>
+  <si>
+    <t>landing page information</t>
+  </si>
+  <si>
+    <t>General stuff</t>
+  </si>
+  <si>
+    <t>to be specified; turn negative in positive ones</t>
+  </si>
+  <si>
+    <t>memcache graph data</t>
+  </si>
+  <si>
+    <t>highlight text, bg and color fix</t>
+  </si>
+  <si>
+    <t>memcache</t>
+  </si>
+  <si>
+    <t>styles</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>mysql_real_escape_string für alle user eingaben die in die db gehen</t>
+  </si>
+  <si>
+    <t>in functions auslagern wo möglich</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>overview page (detailed view)</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>select box 1 item fix</t>
+  </si>
+  <si>
+    <t>was ist bei 0 items!?</t>
+  </si>
+  <si>
+    <t>implement trigger to refresh all memcache items</t>
+  </si>
+  <si>
+    <t>htaccess expand ohne index</t>
+  </si>
+  <si>
+    <t>language functionality: wenn eingeloggt dann auch in DB ändern; kürzel mit nach JS übertragen, nicht 1, 2…</t>
+  </si>
+  <si>
+    <t>grundsätzlich DB abfragen minimal halten / cachen, auch text queries</t>
+  </si>
+  <si>
+    <t>code kommentieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grundsätzliches mysql error handling </t>
   </si>
 </sst>
 </file>
@@ -140,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -163,11 +364,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,9 +415,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +448,24 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,15 +773,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3115"/>
+  <dimension ref="A1:F3129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="104.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
@@ -537,515 +790,708 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3"/>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="22"/>
+      <c r="B57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="3"/>
+    <row r="64" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="3"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
+      <c r="B66" s="1"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
+      <c r="B67" s="1"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="3"/>
+      <c r="B68" s="1"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2600,45 +3046,101 @@
     </row>
     <row r="290" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="3"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
     </row>
     <row r="291" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="3"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
     </row>
     <row r="292" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="3"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
     </row>
     <row r="293" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="3"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="4"/>
     </row>
     <row r="294" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="3"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
     </row>
     <row r="295" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="3"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
     </row>
     <row r="296" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="3"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
     </row>
     <row r="297" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="3"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
     </row>
     <row r="298" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="3"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
     </row>
     <row r="299" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="3"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
     </row>
     <row r="300" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
     </row>
     <row r="301" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
     </row>
     <row r="302" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="3"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
     </row>
     <row r="303" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="3"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
     </row>
     <row r="304" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="3"/>
@@ -4503,46 +5005,46 @@
     <row r="924" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B924" s="3"/>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B925" s="3"/>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B926" s="3"/>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B927" s="3"/>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B928" s="3"/>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B929" s="3"/>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B930" s="3"/>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B931" s="3"/>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B932" s="3"/>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B933" s="3"/>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B934" s="3"/>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B935" s="3"/>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B936" s="3"/>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B937" s="3"/>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B938" s="3"/>
     </row>
     <row r="939" spans="2:2" x14ac:dyDescent="0.2">
@@ -11076,7 +11578,63 @@
     <row r="3115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3115" s="3"/>
     </row>
+    <row r="3116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3116" s="3"/>
+    </row>
+    <row r="3117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3117" s="3"/>
+    </row>
+    <row r="3118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3118" s="3"/>
+    </row>
+    <row r="3119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3119" s="3"/>
+    </row>
+    <row r="3120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3120" s="3"/>
+    </row>
+    <row r="3121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3121" s="3"/>
+    </row>
+    <row r="3122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3122" s="3"/>
+    </row>
+    <row r="3123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3123" s="3"/>
+    </row>
+    <row r="3124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3124" s="3"/>
+    </row>
+    <row r="3125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3125" s="3"/>
+    </row>
+    <row r="3126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3126" s="3"/>
+    </row>
+    <row r="3127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3127" s="3"/>
+    </row>
+    <row r="3128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3128" s="3"/>
+    </row>
+    <row r="3129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3129" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/media/docs/happify-Dev-Plan.xlsx
+++ b/media/docs/happify-Dev-Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>redirect bei nicht login rausnehmen</t>
   </si>
@@ -263,9 +263,6 @@
     <t>code kommentieren</t>
   </si>
   <si>
-    <t>diary: nach eintrag wird liste zweimal angezeigt</t>
-  </si>
-  <si>
     <t>grundsätzliches mysql error handling ; größtenteils drin, passt erstmal so</t>
   </si>
   <si>
@@ -282,6 +279,15 @@
   </si>
   <si>
     <t>alle strings in language files auslagern, auch in DB checken (z.b. checklist items) bzw. in code schon fertig integrieren name_LANG</t>
+  </si>
+  <si>
+    <t>blog: popup bildbreite wird manchmal nicht richtig erkannt und das popup daher zu klein</t>
+  </si>
+  <si>
+    <t>überall strip_tags und anderer manipulationen verhindert!?</t>
+  </si>
+  <si>
+    <t>seitenquelltext optimierung + keywords</t>
   </si>
 </sst>
 </file>
@@ -795,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,7 +850,7 @@
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -854,7 +860,7 @@
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -894,7 +900,7 @@
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -904,7 +910,7 @@
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -986,7 +992,7 @@
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -998,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1502,7 +1508,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -1520,14 +1526,18 @@
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
